--- a/TiaAddin-Spin-ExcelReader/z.Excel Configurations/ConfigAllarmiUtenze_Motori.xlsx
+++ b/TiaAddin-Spin-ExcelReader/z.Excel Configurations/ConfigAllarmiUtenze_Motori.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PARONETTO G\Documents\GitHub\TiaAddIn-Spin\TiaAddin-Spin-ExcelReader\z.Excel Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D645DAA-1AAF-4EF7-931D-8C9BA7D81DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92254C6E-470A-479F-8608-7914F682BCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27750" windowHeight="16440" xr2:uid="{22A793F4-95FD-4AFA-8F43-DC77A5638B57}"/>
   </bookViews>
@@ -66,15 +66,9 @@
     <t>Variabili</t>
   </si>
   <si>
-    <t>Allarmi Coil1</t>
-  </si>
-  <si>
     <t>Utenza</t>
   </si>
   <si>
-    <t>Allarmi Coil2</t>
-  </si>
-  <si>
     <t>fcAllarmiTest</t>
   </si>
   <si>
@@ -406,6 +400,12 @@
   </si>
   <si>
     <t>Num. anti slittamento gruppo</t>
+  </si>
+  <si>
+    <t>Allarme Set</t>
+  </si>
+  <si>
+    <t>Allarme Bobina</t>
   </si>
 </sst>
 </file>
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667AB657-9EF0-4E7D-B211-0DE4E07AFF8D}">
   <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +831,7 @@
   <sheetData>
     <row r="1" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
@@ -845,7 +845,7 @@
     </row>
     <row r="2" spans="1:12" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>11</v>
@@ -868,49 +868,49 @@
         <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -918,808 +918,808 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C6" s="3">
         <v>200</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3">
         <v>200</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C13" s="3">
         <v>100</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E26" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E27" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E28" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E29" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E30" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E31" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E32" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E34" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E35" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E36" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E37" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E38" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E39" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E40" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E41" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E42" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E43" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E44" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E45" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E46" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E47" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E48" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E49" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E50" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E51" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E52" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E54" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E55" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E56" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E57" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E58" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E59" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E60" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E61" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E75" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E77" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E78" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E79" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E80" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E81" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E82" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E83" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E84" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E85" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E86" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/TiaAddin-Spin-ExcelReader/z.Excel Configurations/ConfigAllarmiUtenze_Motori.xlsx
+++ b/TiaAddin-Spin-ExcelReader/z.Excel Configurations/ConfigAllarmiUtenze_Motori.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PARONETTO G\Documents\GitHub\TiaAddIn-Spin\TiaAddin-Spin-ExcelReader\z.Excel Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDB521D-95F2-496B-A0F1-C2FE39B8065F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4CD80C-28DF-4AD6-8D42-A746E82932FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27750" windowHeight="16440" xr2:uid="{22A793F4-95FD-4AFA-8F43-DC77A5638B57}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21960" windowHeight="13176" xr2:uid="{22A793F4-95FD-4AFA-8F43-DC77A5638B57}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,35 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>Descrizione allarme</t>
   </si>
   <si>
-    <t>{nome_db}.Alm.FWD</t>
-  </si>
-  <si>
-    <t>{nome_db}.Alm.BWD</t>
-  </si>
-  <si>
-    <t>{nome_db}.Alm.Fdbk</t>
-  </si>
-  <si>
-    <t>{nome_db}.Alm.DriveSupply</t>
-  </si>
-  <si>
-    <t>{nome_db}.Alm.DriveFault</t>
-  </si>
-  <si>
-    <t>{nome_db}.Alm.Overload</t>
-  </si>
-  <si>
-    <t>{nome_db}.Alm.RepairSwitch</t>
-  </si>
-  <si>
-    <t>{nome_db}.Alm.Overtemperature</t>
-  </si>
-  <si>
     <t>Utenze</t>
   </si>
   <si>
@@ -66,24 +42,12 @@
     <t>Variabili</t>
   </si>
   <si>
-    <t>Utenza</t>
-  </si>
-  <si>
     <t>fcAllarmiTest</t>
   </si>
   <si>
     <t>CB01</t>
   </si>
   <si>
-    <t>NomeDB</t>
-  </si>
-  <si>
-    <t>Alm.Act.Alm{num_allarme}</t>
-  </si>
-  <si>
-    <t>Alm.Mem.Alm{num_allarme}</t>
-  </si>
-  <si>
     <t>Formato num. Allarme</t>
   </si>
   <si>
@@ -111,67 +75,151 @@
     <t>Tipo divisione</t>
   </si>
   <si>
-    <t>Alm{num_allarme} - {nome_utenza}: Timeout marcia avanti motore</t>
-  </si>
-  <si>
-    <t>Alm{num_allarme} - {nome_utenza}: Timeout marcia indietro motore</t>
-  </si>
-  <si>
-    <t>Alm{num_allarme} - {nome_utenza}: Errore feedback marcia</t>
-  </si>
-  <si>
-    <t>Alm{num_allarme} - {nome_utenza}: Errore alimentazione azionamento</t>
-  </si>
-  <si>
-    <t>Alm{num_allarme} - {nome_utenza}: Fault azionamento</t>
-  </si>
-  <si>
-    <t>Alm{num_allarme} - {nome_utenza}: Scatto termico</t>
-  </si>
-  <si>
-    <t>Alm{num_allarme} - {nome_utenza}: Interuttore manutenzione attivo</t>
-  </si>
-  <si>
-    <t>Alm{num_allarme} - {nome_utenza}: Sovvratemperatura</t>
-  </si>
-  <si>
     <t>TYPE1</t>
   </si>
   <si>
-    <t>{nome_utenza} {nome_db} {num_allarme}</t>
-  </si>
-  <si>
-    <t>PerTipoAllarme</t>
-  </si>
-  <si>
     <t>Dati Blocco FC</t>
   </si>
   <si>
     <t>Numero</t>
   </si>
   <si>
-    <t>UnoPerSegmento</t>
-  </si>
-  <si>
     <t>Num. anti slittamento gruppo</t>
   </si>
   <si>
-    <t>Allarme Set</t>
-  </si>
-  <si>
-    <t>Allarme Bobina</t>
-  </si>
-  <si>
-    <t>AlmTimers.Alm[{num_allarme}]</t>
-  </si>
-  <si>
     <t>Indirizzo Timer</t>
   </si>
   <si>
-    <t>Tipo Timer</t>
-  </si>
-  <si>
     <t>TON</t>
+  </si>
+  <si>
+    <t>Default indirizzo bobina</t>
+  </si>
+  <si>
+    <t>Default indirizzo set</t>
+  </si>
+  <si>
+    <t>Default indirizzo timer</t>
+  </si>
+  <si>
+    <t>Default tipo timer</t>
+  </si>
+  <si>
+    <t>Timeout marcia avanti motore</t>
+  </si>
+  <si>
+    <t>Timeout marcia indietro motore</t>
+  </si>
+  <si>
+    <t>Errore feedback marcia</t>
+  </si>
+  <si>
+    <t>Errore alimentazione azionamento</t>
+  </si>
+  <si>
+    <t>Fault azionamento</t>
+  </si>
+  <si>
+    <t>Scatto termico</t>
+  </si>
+  <si>
+    <t>Interuttore manutenzione attivo</t>
+  </si>
+  <si>
+    <t>Sovvratemperatura</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Alm.FWD</t>
+  </si>
+  <si>
+    <t>Indirizzo Bobina</t>
+  </si>
+  <si>
+    <t>Indirizzo Set</t>
+  </si>
+  <si>
+    <t>Alm.BWD</t>
+  </si>
+  <si>
+    <t>Alm.Fdbk</t>
+  </si>
+  <si>
+    <t>Alm.DriveSupply</t>
+  </si>
+  <si>
+    <t>Alm.DriveFault</t>
+  </si>
+  <si>
+    <t>Alm.Overload</t>
+  </si>
+  <si>
+    <t>Alm.RepairSwitch</t>
+  </si>
+  <si>
+    <t>Alm.Overtemperature</t>
+  </si>
+  <si>
+    <t>Nome segmento divisione per allarme</t>
+  </si>
+  <si>
+    <t>Nome segmento divisione per utenza</t>
+  </si>
+  <si>
+    <t>Indirizzo Utenza</t>
+  </si>
+  <si>
+    <t>Prefisso indirizzo utenza</t>
+  </si>
+  <si>
+    <t>AlmTimers.Alm[{alarm_num}]</t>
+  </si>
+  <si>
+    <t>{user_name}.</t>
+  </si>
+  <si>
+    <t>Descrizione</t>
+  </si>
+  <si>
+    <t>Default tempo timer</t>
+  </si>
+  <si>
+    <t>T#0s</t>
+  </si>
+  <si>
+    <t>Tempo</t>
+  </si>
+  <si>
+    <t>T#3s</t>
+  </si>
+  <si>
+    <t>Valvola ambidestra con flusso canalizzatore</t>
+  </si>
+  <si>
+    <t>TOF</t>
+  </si>
+  <si>
+    <t>Alm.Act.Alm{alarm_num}</t>
+  </si>
+  <si>
+    <t>Alm.Mem.Alm{alarm_num}</t>
+  </si>
+  <si>
+    <t>{user_name} {user_description} {alarm_num_start} {alarm_num_end} {alarm_num} {alarm_description}</t>
+  </si>
+  <si>
+    <t>GruppoPerSegmento</t>
+  </si>
+  <si>
+    <t>PerUtenza</t>
+  </si>
+  <si>
+    <t>Alm{alarm_num_start} ~ {alarm_num_end} - {user_name} - {alarm_description}</t>
+  </si>
+  <si>
+    <t>Alm{alarm_num_start} ~ {alarm_num_end} - {user_name} - {user_description}</t>
   </si>
 </sst>
 </file>
@@ -239,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -253,15 +301,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,347 +636,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667AB657-9EF0-4E7D-B211-0DE4E07AFF8D}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F86" sqref="E5:F86"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="1.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="34.21875" customWidth="1"/>
+    <col min="3" max="3" width="71.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="1.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="1.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28" style="2" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="70.42578125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="45.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="1.44140625" style="2" customWidth="1"/>
+    <col min="8" max="11" width="20.77734375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.77734375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="45.77734375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="5.77734375" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="H2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="1:15" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:14" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="K4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="H2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="C6" s="3">
         <v>200</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3">
         <v>200</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="O11" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="C13" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="H3:O3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B1:K1"/>
-    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="H2:O2"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{F5E4D3FC-4D67-4AB1-A3E0-2BD5870384F2}">
@@ -934,11 +987,11 @@
       <formula1>0</formula1>
       <formula2>9999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M12:M1048576 N4:N11" xr:uid="{2F86C16C-0261-4A0E-9E02-68DD4F8930D4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19 L5:L1048576" xr:uid="{30675AF6-6451-470D-BF1D-59341B028670}">
+      <formula1>"TON,TOF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O1048576" xr:uid="{ABA14625-FEA0-4BF2-8F91-7CEA04EDBD43}">
       <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L1048576" xr:uid="{30675AF6-6451-470D-BF1D-59341B028670}">
-      <formula1>"TON,TOF"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TiaAddin-Spin-ExcelReader/z.Excel Configurations/ConfigAllarmiUtenze_Motori.xlsx
+++ b/TiaAddin-Spin-ExcelReader/z.Excel Configurations/ConfigAllarmiUtenze_Motori.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PARONETTO G\Documents\GitHub\TiaAddIn-Spin\TiaAddin-Spin-ExcelReader\z.Excel Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4CD80C-28DF-4AD6-8D42-A746E82932FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603DF58F-5199-402A-8183-3D9FD35E2F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="21960" windowHeight="13176" xr2:uid="{22A793F4-95FD-4AFA-8F43-DC77A5638B57}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <t>Descrizione allarme</t>
   </si>
@@ -220,13 +220,19 @@
   </si>
   <si>
     <t>Alm{alarm_num_start} ~ {alarm_num_end} - {user_name} - {user_description}</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>Imposta \ sul campo indirizzo bobina, set e/o timer per non far generare i corrispettivi. Se il campo è vuoto, verrà usato il valore di default nella config. a sinistra.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +267,13 @@
       <i/>
       <u/>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -312,15 +325,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667AB657-9EF0-4E7D-B211-0DE4E07AFF8D}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,55 +673,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
       <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:15" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="F2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="H3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
@@ -761,6 +776,9 @@
       <c r="H5" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="K5" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="N5" s="2" t="s">
         <v>26</v>
       </c>
@@ -778,6 +796,9 @@
       <c r="H6" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="K6" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="N6" s="2" t="s">
         <v>27</v>
       </c>
@@ -789,6 +810,9 @@
       <c r="H7" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="K7" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="N7" s="2" t="s">
         <v>28</v>
       </c>
@@ -806,6 +830,9 @@
       <c r="H8" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="K8" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="N8" s="2" t="s">
         <v>29</v>
       </c>
@@ -823,6 +850,9 @@
       <c r="H9" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="K9" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="N9" s="2" t="s">
         <v>30</v>
       </c>
@@ -863,6 +893,9 @@
       <c r="H11" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="K11" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="N11" s="2" t="s">
         <v>32</v>
       </c>
@@ -873,6 +906,9 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H12" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>33</v>

--- a/TiaAddin-Spin-ExcelReader/z.Excel Configurations/ConfigAllarmiUtenze_Motori.xlsx
+++ b/TiaAddin-Spin-ExcelReader/z.Excel Configurations/ConfigAllarmiUtenze_Motori.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PARONETTO G\Documents\GitHub\TiaAddIn-Spin\TiaAddin-Spin-ExcelReader\z.Excel Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603DF58F-5199-402A-8183-3D9FD35E2F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B388594-27F7-4D57-A0A8-E9BFF2A08830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21960" windowHeight="13176" xr2:uid="{22A793F4-95FD-4AFA-8F43-DC77A5638B57}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27750" windowHeight="16440" xr2:uid="{22A793F4-95FD-4AFA-8F43-DC77A5638B57}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -168,12 +168,6 @@
     <t>Nome segmento divisione per utenza</t>
   </si>
   <si>
-    <t>Indirizzo Utenza</t>
-  </si>
-  <si>
-    <t>Prefisso indirizzo utenza</t>
-  </si>
-  <si>
     <t>AlmTimers.Alm[{alarm_num}]</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
     <t>T#3s</t>
   </si>
   <si>
-    <t>Valvola ambidestra con flusso canalizzatore</t>
-  </si>
-  <si>
     <t>TOF</t>
   </si>
   <si>
@@ -226,13 +217,22 @@
   </si>
   <si>
     <t>Imposta \ sul campo indirizzo bobina, set e/o timer per non far generare i corrispettivi. Se il campo è vuoto, verrà usato il valore di default nella config. a sinistra.</t>
+  </si>
+  <si>
+    <t>Valvola ambidestra con flusso canalizzatore 1.21GW</t>
+  </si>
+  <si>
+    <t>Indirizzo Allarme</t>
+  </si>
+  <si>
+    <t>Prefisso indirizzo allarme</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +275,12 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -325,15 +331,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,81 +657,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667AB657-9EF0-4E7D-B211-0DE4E07AFF8D}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="2" width="34.21875" customWidth="1"/>
-    <col min="3" max="3" width="71.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="71.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="1.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="45.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="1.44140625" style="2" customWidth="1"/>
-    <col min="8" max="11" width="20.77734375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.77734375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.77734375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="45.77734375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="5.77734375" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9.109375" style="2"/>
+    <col min="6" max="6" width="50.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="1.42578125" style="2" customWidth="1"/>
+    <col min="8" max="11" width="20.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="45.7109375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+    <row r="1" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
       <c r="M1" s="8"/>
     </row>
-    <row r="2" spans="1:15" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="10"/>
+      <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="H2" s="9" t="s">
+      <c r="F2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-    </row>
-    <row r="3" spans="1:15" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="1:15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-    </row>
-    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="H3" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
@@ -733,10 +739,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>36</v>
@@ -751,7 +757,7 @@
         <v>34</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>0</v>
@@ -760,7 +766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -771,13 +777,13 @@
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>26</v>
@@ -786,7 +792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -797,7 +803,7 @@
         <v>38</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>27</v>
@@ -806,12 +812,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>28</v>
@@ -820,7 +826,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
@@ -831,7 +837,7 @@
         <v>40</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>29</v>
@@ -840,7 +846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -851,7 +857,7 @@
         <v>41</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>30</v>
@@ -860,21 +866,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>42</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>31</v>
@@ -883,18 +889,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>32</v>
@@ -903,12 +909,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>33</v>
@@ -917,7 +923,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
@@ -925,7 +931,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
@@ -933,31 +939,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
@@ -965,39 +971,39 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1008,6 +1014,7 @@
     <mergeCell ref="B1:K1"/>
     <mergeCell ref="H2:O2"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{F5E4D3FC-4D67-4AB1-A3E0-2BD5870384F2}">
       <formula1>"UnoPerSegmento,GruppoPerSegmento"</formula1>

--- a/TiaAddin-Spin-ExcelReader/z.Excel Configurations/ConfigAllarmiUtenze_Motori.xlsx
+++ b/TiaAddin-Spin-ExcelReader/z.Excel Configurations/ConfigAllarmiUtenze_Motori.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PARONETTO G\Documents\GitHub\TiaAddIn-Spin\TiaAddin-Spin-ExcelReader\z.Excel Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B388594-27F7-4D57-A0A8-E9BFF2A08830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEF94F4-E455-4222-AEFB-AA3711A8C5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27750" windowHeight="16440" xr2:uid="{22A793F4-95FD-4AFA-8F43-DC77A5638B57}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13755" windowHeight="16200" xr2:uid="{22A793F4-95FD-4AFA-8F43-DC77A5638B57}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
   <si>
     <t>Descrizione allarme</t>
   </si>
@@ -48,15 +48,9 @@
     <t>CB01</t>
   </si>
   <si>
-    <t>Formato num. Allarme</t>
-  </si>
-  <si>
     <t>000.###</t>
   </si>
   <si>
-    <t>Num. allarme di partenza</t>
-  </si>
-  <si>
     <t>Usa</t>
   </si>
   <si>
@@ -66,9 +60,6 @@
     <t>false</t>
   </si>
   <si>
-    <t>Salta num. ogni fine gruppo</t>
-  </si>
-  <si>
     <t>Tipo raggruppamento</t>
   </si>
   <si>
@@ -78,33 +69,15 @@
     <t>TYPE1</t>
   </si>
   <si>
-    <t>Dati Blocco FC</t>
-  </si>
-  <si>
     <t>Numero</t>
   </si>
   <si>
-    <t>Num. anti slittamento gruppo</t>
-  </si>
-  <si>
     <t>Indirizzo Timer</t>
   </si>
   <si>
     <t>TON</t>
   </si>
   <si>
-    <t>Default indirizzo bobina</t>
-  </si>
-  <si>
-    <t>Default indirizzo set</t>
-  </si>
-  <si>
-    <t>Default indirizzo timer</t>
-  </si>
-  <si>
-    <t>Default tipo timer</t>
-  </si>
-  <si>
     <t>Timeout marcia avanti motore</t>
   </si>
   <si>
@@ -162,12 +135,6 @@
     <t>Alm.Overtemperature</t>
   </si>
   <si>
-    <t>Nome segmento divisione per allarme</t>
-  </si>
-  <si>
-    <t>Nome segmento divisione per utenza</t>
-  </si>
-  <si>
     <t>AlmTimers.Alm[{alarm_num}]</t>
   </si>
   <si>
@@ -177,9 +144,6 @@
     <t>Descrizione</t>
   </si>
   <si>
-    <t>Default tempo timer</t>
-  </si>
-  <si>
     <t>T#0s</t>
   </si>
   <si>
@@ -225,14 +189,62 @@
     <t>Indirizzo Allarme</t>
   </si>
   <si>
-    <t>Prefisso indirizzo allarme</t>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>Numero allarme</t>
+  </si>
+  <si>
+    <t>Valori default campi</t>
+  </si>
+  <si>
+    <t>Indirizzo bobina</t>
+  </si>
+  <si>
+    <t>Indirizzo set</t>
+  </si>
+  <si>
+    <t>Indirizzo timer</t>
+  </si>
+  <si>
+    <t>Tipo timer</t>
+  </si>
+  <si>
+    <t>Prefissi campi</t>
+  </si>
+  <si>
+    <t>Formato</t>
+  </si>
+  <si>
+    <t>Num. Partenza</t>
+  </si>
+  <si>
+    <t>Salta ogni fine gruppo</t>
+  </si>
+  <si>
+    <t>Anti slittamento gruppo</t>
+  </si>
+  <si>
+    <t>Nome segmento</t>
+  </si>
+  <si>
+    <t>Divisione per allarme</t>
+  </si>
+  <si>
+    <t>Divisione per utenza</t>
+  </si>
+  <si>
+    <t>Indirizzo allarme</t>
+  </si>
+  <si>
+    <t>Valore timer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +297,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -294,7 +314,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -302,20 +322,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -341,6 +419,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -655,359 +763,407 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667AB657-9EF0-4E7D-B211-0DE4E07AFF8D}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="75" style="2" customWidth="1"/>
     <col min="4" max="4" width="1.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" customWidth="1"/>
     <col min="6" max="6" width="50.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="1.42578125" style="2" customWidth="1"/>
     <col min="8" max="11" width="20.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="45.7109375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="6" customWidth="1"/>
+    <col min="14" max="14" width="45.7109375" style="6" customWidth="1"/>
     <col min="15" max="15" width="5.7109375" style="2" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="M1" s="8"/>
+      <c r="B1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:15" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="H2" s="10" t="s">
+      <c r="F2" s="9"/>
+      <c r="H2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-    </row>
-    <row r="3" spans="1:15" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" s="4" t="s">
+      <c r="F4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>10</v>
+      <c r="O4" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="14">
+        <v>200</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3">
-        <v>200</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>12</v>
+      <c r="O6" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="H11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="20">
+        <v>200</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3">
-        <v>200</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="23" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B24" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="16"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="12"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+      <c r="C28" s="17"/>
+    </row>
+    <row r="29" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C30" s="16"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>61</v>
+    <row r="32" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="H3:O3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B2:C2"/>
@@ -1016,21 +1172,21 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{F5E4D3FC-4D67-4AB1-A3E0-2BD5870384F2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9" xr:uid="{F5E4D3FC-4D67-4AB1-A3E0-2BD5870384F2}">
       <formula1>"UnoPerSegmento,GruppoPerSegmento"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C6 C13" xr:uid="{F717952B-D4F9-4570-84C1-F92597681F3D}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12 C6 C14" xr:uid="{F717952B-D4F9-4570-84C1-F92597681F3D}">
       <formula1>0</formula1>
       <formula2>99999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{28CE5F0A-4030-43FD-81FB-F3DA458AE77A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{28CE5F0A-4030-43FD-81FB-F3DA458AE77A}">
       <formula1>"PerUtenza,PerTipoAllarme"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14" xr:uid="{7DFC26E2-A127-47D5-9AFB-DCB3CF89BE1E}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{7DFC26E2-A127-47D5-9AFB-DCB3CF89BE1E}">
       <formula1>0</formula1>
       <formula2>9999</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19 L5:L1048576" xr:uid="{30675AF6-6451-470D-BF1D-59341B028670}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21 L5:L1048576" xr:uid="{30675AF6-6451-470D-BF1D-59341B028670}">
       <formula1>"TON,TOF"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O1048576" xr:uid="{ABA14625-FEA0-4BF2-8F91-7CEA04EDBD43}">

--- a/TiaAddin-Spin-ExcelReader/z.Excel Configurations/ConfigAllarmiUtenze_Motori.xlsx
+++ b/TiaAddin-Spin-ExcelReader/z.Excel Configurations/ConfigAllarmiUtenze_Motori.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PARONETTO G\Documents\GitHub\TiaAddIn-Spin\TiaAddin-Spin-ExcelReader\z.Excel Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEF94F4-E455-4222-AEFB-AA3711A8C5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BDEBBB-646B-4AD6-8A56-5B08F6F1DF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13755" windowHeight="16200" xr2:uid="{22A793F4-95FD-4AFA-8F43-DC77A5638B57}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="20640" windowHeight="11835" xr2:uid="{22A793F4-95FD-4AFA-8F43-DC77A5638B57}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -228,16 +228,16 @@
     <t>Nome segmento</t>
   </si>
   <si>
-    <t>Divisione per allarme</t>
-  </si>
-  <si>
-    <t>Divisione per utenza</t>
-  </si>
-  <si>
     <t>Indirizzo allarme</t>
   </si>
   <si>
     <t>Valore timer</t>
+  </si>
+  <si>
+    <t>Divisione uno alla volta</t>
+  </si>
+  <si>
+    <t>Divisione per gruppo</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -409,16 +409,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -428,27 +418,29 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -765,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667AB657-9EF0-4E7D-B211-0DE4E07AFF8D}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,63 +779,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
       <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:15" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="17"/>
+      <c r="E2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="H2" s="9" t="s">
+      <c r="F2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
     </row>
     <row r="3" spans="1:15" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="15"/>
       <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
@@ -876,10 +868,10 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -902,10 +894,10 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="11">
         <v>200</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -993,10 +985,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="15"/>
       <c r="H11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1011,10 +1003,10 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="13">
         <v>200</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -1031,144 +1023,144 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="13">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="16"/>
+      <c r="C17" s="15"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="17" t="s">
+      <c r="B22" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="16"/>
+      <c r="C24" s="15"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="B25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="12"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="12"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="12"/>
     </row>
     <row r="29" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="16"/>
+      <c r="C30" s="15"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="12" t="s">
+      <c r="B31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="17" t="s">
+      <c r="B32" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="H2:O2"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="H3:O3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="H2:O2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="6">
